--- a/biology/Mycologie/Psathyrella/Psathyrella.xlsx
+++ b/biology/Mycologie/Psathyrella/Psathyrella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psathyrella (les Psathyrelles), est un genre de champignons basidiomycètes de la famille des Psathyrellaceae.
-Ce genre comporte une centaine d'espèces, semblables phylogénétiquement aux genres Coprinellus et Coprinopsis[1], et proches morphologiquement des Coprinus et Panaeolus [2].
-C’est le premier genre connu dont une espèce possède des lames qui sont capables de sporuler sous l'eau : Psathyrella aquatica[3].
+Ce genre comporte une centaine d'espèces, semblables phylogénétiquement aux genres Coprinellus et Coprinopsis, et proches morphologiquement des Coprinus et Panaeolus .
+C’est le premier genre connu dont une espèce possède des lames qui sont capables de sporuler sous l'eau : Psathyrella aquatica.
 </t>
         </is>
       </c>
@@ -513,13 +525,15 @@
           <t>Description du genre (sensu lato)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Basidiomes fragiles. Lames non déliquescentes, Chapeau plat ou campanulé (silhouette mycénoïde, parfois plus robuste) . Sporée brune à noire .
 Spores lisses (sauf parfois dans la Sect. Lacrymaria). Pore germinatif. Cystides en ballon, en poire, en flasques ou plus élancées, parfois à paroi épaisse and cristaux.
 Env.160-170 espèces. CD 782-818; K.&amp; R. :354, .Moser KKF . :269, CD:45, Bon :266
 Synonyme = Drosophila Quél. em. Kühn. &amp; Romagn.
-Sous-genre Lacrymaria : Cortine abondante, noire à maturité. Chap. +- velouté à squamuleux. Marge appendiculée. Lames pommelées nuageuses. Spores remarquables (C.D. Fig.25i). 2 espèces[4].
+Sous-genre Lacrymaria : Cortine abondante, noire à maturité. Chap. +- velouté à squamuleux. Marge appendiculée. Lames pommelées nuageuses. Spores remarquables (C.D. Fig.25i). 2 espèces.
 Sous-genre Psathyrella + Psathyra : 
 Cortine rarement très développée. Lames de couleur uniforme, sans pleurs. Chapeau hygrophane. Classification selon les spores, les cystides. Très difficile sans microscope. Psathyra (cystides faciales à cristaux ou uniquement marginales)
 CD 784-818
@@ -557,9 +571,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (29 octobre 2013)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (29 octobre 2013) :
 Psathyrella abieticola
 Psathyrella abortiva
 Psathyrella acadiensis
@@ -1226,7 +1242,7 @@
 Psathyrella weberi
 Psathyrella wilsonensis
 Psathyrella yaoundeana
-Selon Index Fungorum                                      (29 octobre 2013)[6] :
+Selon Index Fungorum                                      (29 octobre 2013) :
 Psathyrella abieticola A.H. Sm. 1972
 Psathyrella abortiva A.H. Sm. 1972
 Psathyrella acadiensis A.H. Sm. 1972
